--- a/data/PAM/2018_PAM Rubber_Mono.xlsx
+++ b/data/PAM/2018_PAM Rubber_Mono.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\ICRAF\Project\2018_Project\IDH-Jambi\Analisis\NPV_Jambi_GGP_2018_Olddata\GGP_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dw\ICRAF\profitability\data\PAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-12" windowWidth="9648" windowHeight="8160" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9600" yWindow="-12" windowWidth="9648" windowHeight="8160" tabRatio="783" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Asumsi" sheetId="14" r:id="rId1"/>
@@ -25,17 +25,17 @@
     <definedName name="rate_private">Asumsi!$D$7</definedName>
     <definedName name="rate_social">Asumsi!$D$8</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="0.01"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>msofiyuddin</author>
   </authors>
   <commentList>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="K48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -863,13 +863,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1322,9 +1322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1438,10 +1438,10 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1465,7 +1465,7 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1539,7 +1539,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1557,7 +1557,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,7 +1578,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1632,12 +1632,12 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1654,7 +1654,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,7 +1662,7 @@
     <xf numFmtId="38" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1692,7 +1692,7 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1702,14 +1702,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1725,7 +1725,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,11 +1763,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1787,17 +1790,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1888,23 +1888,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1940,23 +1923,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2132,13 +2098,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2477,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C1:F55"/>
   <sheetViews>
@@ -3151,15 +3117,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AW75"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,94 +3285,94 @@
       <c r="C4" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="198" t="s">
+      <c r="I4" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="198" t="s">
+      <c r="K4" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="198" t="s">
+      <c r="L4" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="198" t="s">
+      <c r="O4" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="198" t="s">
+      <c r="P4" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="198" t="s">
+      <c r="Q4" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="198" t="s">
+      <c r="R4" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="198" t="s">
+      <c r="T4" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="198" t="s">
+      <c r="U4" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="W4" s="198" t="s">
+      <c r="W4" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="198" t="s">
+      <c r="X4" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="Y4" s="198" t="s">
+      <c r="Y4" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="198" t="s">
+      <c r="Z4" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="198" t="s">
+      <c r="AA4" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="198" t="s">
+      <c r="AB4" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="198" t="s">
+      <c r="AC4" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="198" t="s">
+      <c r="AD4" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="198" t="s">
+      <c r="AE4" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" s="198" t="s">
+      <c r="AF4" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="198" t="s">
+      <c r="AG4" s="199" t="s">
         <v>83</v>
       </c>
       <c r="AH4" s="81"/>
@@ -3427,38 +3393,38 @@
       <c r="AW4" s="82"/>
     </row>
     <row r="5" spans="2:49" s="76" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="199"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="195"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
       <c r="AH5" s="81"/>
       <c r="AI5" s="81"/>
       <c r="AJ5" s="81"/>
@@ -6998,11 +6964,21 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -7015,21 +6991,11 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7040,15 +7006,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AW68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7182,94 +7148,94 @@
       <c r="C4" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="198" t="s">
+      <c r="I4" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="198" t="s">
+      <c r="K4" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="198" t="s">
+      <c r="L4" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="198" t="s">
+      <c r="O4" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="198" t="s">
+      <c r="P4" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="198" t="s">
+      <c r="Q4" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="198" t="s">
+      <c r="R4" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="198" t="s">
+      <c r="T4" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="198" t="s">
+      <c r="U4" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="W4" s="198" t="s">
+      <c r="W4" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="198" t="s">
+      <c r="X4" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="Y4" s="198" t="s">
+      <c r="Y4" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="198" t="s">
+      <c r="Z4" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="198" t="s">
+      <c r="AA4" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="198" t="s">
+      <c r="AB4" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="198" t="s">
+      <c r="AC4" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="198" t="s">
+      <c r="AD4" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="198" t="s">
+      <c r="AE4" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" s="198" t="s">
+      <c r="AF4" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="198" t="s">
+      <c r="AG4" s="199" t="s">
         <v>83</v>
       </c>
       <c r="AH4" s="78"/>
@@ -7292,36 +7258,36 @@
     <row r="5" spans="2:49" s="76" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="197"/>
       <c r="C5" s="195"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
@@ -11045,11 +11011,11 @@
         <v>8</v>
       </c>
       <c r="D50" s="10">
-        <f t="shared" ref="D50:AG50" si="0">SUM(D8:D48)</f>
+        <f>SUM(D8:D48)</f>
         <v>11610000</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D50:AG50" si="0">SUM(E8:E48)</f>
         <v>2027500</v>
       </c>
       <c r="F50" s="10">
@@ -12048,17 +12014,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="B4:B5"/>
@@ -12075,11 +12035,17 @@
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12089,7 +12055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AW75"/>
   <sheetViews>
@@ -12231,94 +12197,94 @@
       <c r="C4" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="198" t="s">
+      <c r="I4" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="198" t="s">
+      <c r="K4" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="198" t="s">
+      <c r="L4" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="198" t="s">
+      <c r="O4" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="198" t="s">
+      <c r="P4" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="198" t="s">
+      <c r="Q4" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="198" t="s">
+      <c r="R4" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="198" t="s">
+      <c r="T4" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="198" t="s">
+      <c r="U4" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="W4" s="198" t="s">
+      <c r="W4" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="198" t="s">
+      <c r="X4" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="Y4" s="198" t="s">
+      <c r="Y4" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="198" t="s">
+      <c r="Z4" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="198" t="s">
+      <c r="AA4" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="198" t="s">
+      <c r="AB4" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="198" t="s">
+      <c r="AC4" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="AD4" s="198" t="s">
+      <c r="AD4" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="198" t="s">
+      <c r="AE4" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" s="198" t="s">
+      <c r="AF4" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="198" t="s">
+      <c r="AG4" s="199" t="s">
         <v>83</v>
       </c>
       <c r="AH4" s="78"/>
@@ -12341,36 +12307,36 @@
     <row r="5" spans="2:49" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="197"/>
       <c r="C5" s="195"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
@@ -17559,11 +17525,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="Q4:Q5"/>
@@ -17578,19 +17552,11 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17599,7 +17565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -17615,8 +17581,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
       <c r="G4" s="129" t="s">
         <v>151</v>
       </c>
@@ -17709,18 +17675,18 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="205">
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="206">
         <v>276</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="200" t="s">
+      <c r="F5" s="201" t="s">
         <v>180</v>
       </c>
       <c r="G5" s="128"/>
@@ -17755,12 +17721,12 @@
       <c r="AJ5" s="128"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="203"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="200"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="201"/>
       <c r="G6" s="128"/>
       <c r="H6" s="128"/>
       <c r="I6" s="128"/>
@@ -17843,7 +17809,7 @@
       <c r="D7" s="127">
         <v>180</v>
       </c>
-      <c r="E7" s="201"/>
+      <c r="E7" s="202"/>
       <c r="F7" s="131" t="s">
         <v>147</v>
       </c>
@@ -17942,16 +17908,16 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204">
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="205">
         <v>400</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="200" t="s">
+      <c r="E8" s="202"/>
+      <c r="F8" s="201" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="128"/>
@@ -17986,12 +17952,12 @@
       <c r="AJ8" s="128"/>
     </row>
     <row r="9" spans="1:38" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="200"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="201"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133"/>
       <c r="I9" s="133"/>
@@ -18088,7 +18054,7 @@
       <c r="D10" s="127">
         <v>180</v>
       </c>
-      <c r="E10" s="201"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="131" t="s">
         <v>147</v>
       </c>
@@ -18239,8 +18205,8 @@
       <c r="AJ11" s="128"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="200"/>
       <c r="G12" s="129" t="s">
         <v>185</v>
       </c>
@@ -18333,10 +18299,10 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E13" s="202" t="s">
+      <c r="E13" s="203" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="200" t="s">
+      <c r="F13" s="201" t="s">
         <v>180</v>
       </c>
       <c r="G13" s="128"/>
@@ -18371,8 +18337,8 @@
       <c r="AJ13" s="128"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E14" s="202"/>
-      <c r="F14" s="200"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="128"/>
       <c r="H14" s="128"/>
       <c r="I14" s="128"/>
@@ -18447,7 +18413,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E15" s="202"/>
+      <c r="E15" s="203"/>
       <c r="F15" s="129"/>
       <c r="G15" s="128"/>
       <c r="H15" s="128"/>
@@ -18481,8 +18447,8 @@
       <c r="AJ15" s="128"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E16" s="202"/>
-      <c r="F16" s="200" t="s">
+      <c r="E16" s="203"/>
+      <c r="F16" s="201" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="128"/>
@@ -18517,8 +18483,8 @@
       <c r="AJ16" s="128"/>
     </row>
     <row r="17" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E17" s="202"/>
-      <c r="F17" s="200"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="201"/>
       <c r="G17" s="128"/>
       <c r="H17" s="128"/>
       <c r="I17" s="128"/>
@@ -18601,7 +18567,7 @@
       <c r="AL17" s="125"/>
     </row>
     <row r="18" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E18" s="202"/>
+      <c r="E18" s="203"/>
       <c r="F18" s="128"/>
       <c r="G18" s="128"/>
       <c r="H18" s="128"/>
@@ -18647,11 +18613,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E13:E18"/>
@@ -18659,13 +18620,18 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:G13"/>
   <sheetViews>
